--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.assessment/op-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.assessment/op-rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93464C4C-DBFC-C14C-80EA-84F1511625A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CB607D-7B2F-F841-9966-0B7D92DC7326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="3420" windowWidth="23400" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6920" yWindow="1500" windowWidth="28060" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI-LIST" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="82">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -309,6 +309,18 @@
   </si>
   <si>
     <t>389cbe69-0768-484b-878f-afd353b489cb</t>
+  </si>
+  <si>
+    <t>控件类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOW</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -415,7 +427,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -438,19 +450,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -485,8 +503,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:M27"/>
+  <dimension ref="A3:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.83203125" defaultRowHeight="21"/>
@@ -802,9 +826,9 @@
     <col min="3" max="3" width="28.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="65" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39.1640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="66.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -814,11 +838,11 @@
     <col min="15" max="16384" width="119.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="22"/>
@@ -826,523 +850,642 @@
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6" t="s">
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="7" t="s">
+      <c r="I4" s="1"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="8" t="s">
+      <c r="I5" s="1"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="8" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="1"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="8" t="s">
+      <c r="H7" s="10"/>
+      <c r="I7" s="1"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="8" t="s">
+      <c r="H8" s="10"/>
+      <c r="I8" s="1"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="8" t="s">
+      <c r="H9" s="10"/>
+      <c r="I9" s="1"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="8" t="s">
+      <c r="H10" s="10"/>
+      <c r="I10" s="1"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" s="19" customFormat="1">
-      <c r="A12" s="14" t="s">
+      <c r="H11" s="10"/>
+      <c r="I11" s="1"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" s="18" customFormat="1">
+      <c r="A12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="E12" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="8" t="s">
+      <c r="H12" s="16"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="13" t="s">
+      <c r="E13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="8" t="s">
+      <c r="H13" s="10"/>
+      <c r="I13" s="1"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="13" t="s">
+      <c r="E14" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="8" t="s">
+      <c r="H14" s="10"/>
+      <c r="I14" s="1"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="13" t="s">
+      <c r="E15" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="8" t="s">
+      <c r="H15" s="10"/>
+      <c r="I15" s="1"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="E16" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="8" t="s">
+      <c r="H16" s="10"/>
+      <c r="I16" s="1"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="13" t="s">
+      <c r="E17" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="8" t="s">
+      <c r="H17" s="10"/>
+      <c r="I17" s="1"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="13" t="s">
+      <c r="E18" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="12" t="s">
+      <c r="H18" s="10"/>
+      <c r="I18" s="1"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="E19" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="8" t="s">
+      <c r="H19" s="10"/>
+      <c r="I19" s="1"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="13" t="s">
+      <c r="E20" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="8" t="s">
+      <c r="H20" s="10"/>
+      <c r="I20" s="1"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="13" t="s">
+      <c r="E21" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="8" t="s">
+      <c r="H21" s="10"/>
+      <c r="I21" s="1"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="13" t="s">
+      <c r="E22" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="8" t="s">
+      <c r="H22" s="10"/>
+      <c r="I22" s="1"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="13" t="s">
+      <c r="E23" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="8" t="s">
+      <c r="H23" s="10"/>
+      <c r="I23" s="1"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="13" t="s">
+      <c r="E24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="8" t="s">
+      <c r="H24" s="10"/>
+      <c r="I24" s="1"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="E25" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="8" t="s">
+      <c r="H25" s="10"/>
+      <c r="I25" s="1"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="8" t="s">
+      <c r="H26" s="10"/>
+      <c r="I26" s="1"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="13" t="s">
+      <c r="E27" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="11"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="1"/>
+      <c r="N27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.assessment/op-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.assessment/op-rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CB607D-7B2F-F841-9966-0B7D92DC7326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539D7FAC-0562-3243-89BA-E04A8836E3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6920" yWindow="1500" windowWidth="28060" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-41720" yWindow="-6280" windowWidth="33960" windowHeight="24180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI-LIST" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="84">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -320,6 +320,14 @@
   </si>
   <si>
     <t>FLOW</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理顺序</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiSort</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -456,7 +464,18 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -503,13 +522,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -813,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:N27"/>
+  <dimension ref="A3:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H23" sqref="H23:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.83203125" defaultRowHeight="21"/>
@@ -828,8 +847,8 @@
     <col min="5" max="5" width="35.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39.1640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="66.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="61.83203125" style="3" bestFit="1" customWidth="1"/>
@@ -838,21 +857,22 @@
     <col min="15" max="16384" width="119.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -875,12 +895,16 @@
         <v>9</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -903,12 +927,16 @@
         <v>15</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="7" t="s">
         <v>57</v>
       </c>
@@ -924,17 +952,21 @@
       <c r="E6" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="10">
+        <v>1005</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="1"/>
       <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="7" t="s">
         <v>58</v>
       </c>
@@ -950,17 +982,21 @@
       <c r="E7" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="10">
+        <v>1010</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="1"/>
       <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="7" t="s">
         <v>59</v>
       </c>
@@ -976,17 +1012,21 @@
       <c r="E8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="10">
+        <v>1005</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="1"/>
       <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="7" t="s">
         <v>60</v>
       </c>
@@ -1002,17 +1042,21 @@
       <c r="E9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="10">
+        <v>1010</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="1"/>
       <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="7" t="s">
         <v>61</v>
       </c>
@@ -1028,17 +1072,21 @@
       <c r="E10" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="10">
+        <v>1015</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="1"/>
       <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="7" t="s">
         <v>62</v>
       </c>
@@ -1054,17 +1102,21 @@
       <c r="E11" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="10">
+        <v>1020</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="1"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" s="18" customFormat="1">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" s="18" customFormat="1">
       <c r="A12" s="13" t="s">
         <v>63</v>
       </c>
@@ -1080,20 +1132,23 @@
       <c r="E12" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="J12" s="19"/>
+      <c r="H12" s="16">
+        <v>1025</v>
+      </c>
+      <c r="I12" s="16"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -1109,17 +1164,21 @@
       <c r="E13" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="10">
+        <v>1005</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="1"/>
       <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="7" t="s">
         <v>65</v>
       </c>
@@ -1135,17 +1194,21 @@
       <c r="E14" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="10">
+        <v>1010</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="1"/>
       <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="7" t="s">
         <v>66</v>
       </c>
@@ -1161,17 +1224,21 @@
       <c r="E15" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="10">
+        <v>1015</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="1"/>
       <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="7" t="s">
         <v>67</v>
       </c>
@@ -1187,17 +1254,21 @@
       <c r="E16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="10">
+        <v>1020</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="1"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="7" t="s">
         <v>68</v>
       </c>
@@ -1213,17 +1284,21 @@
       <c r="E17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="10">
+        <v>1025</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="1"/>
       <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="7" t="s">
         <v>69</v>
       </c>
@@ -1239,17 +1314,21 @@
       <c r="E18" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="10">
+        <v>1005</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="1"/>
       <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="11" t="s">
         <v>70</v>
       </c>
@@ -1265,17 +1344,21 @@
       <c r="E19" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="10">
+        <v>1010</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="1"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="7" t="s">
         <v>71</v>
       </c>
@@ -1291,17 +1374,21 @@
       <c r="E20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="1"/>
+      <c r="H20" s="10">
+        <v>1015</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="1"/>
       <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="7" t="s">
         <v>72</v>
       </c>
@@ -1317,17 +1404,21 @@
       <c r="E21" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="10">
+        <v>1020</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="1"/>
       <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="7" t="s">
         <v>73</v>
       </c>
@@ -1343,17 +1434,21 @@
       <c r="E22" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="1"/>
+      <c r="H22" s="10">
+        <v>1025</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="1"/>
       <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="7" t="s">
         <v>74</v>
       </c>
@@ -1369,17 +1464,21 @@
       <c r="E23" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="1"/>
+      <c r="H23" s="10">
+        <v>1005</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="1"/>
       <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="7" t="s">
         <v>75</v>
       </c>
@@ -1395,17 +1494,21 @@
       <c r="E24" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="1"/>
+      <c r="H24" s="10">
+        <v>1010</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="1"/>
       <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="7" t="s">
         <v>76</v>
       </c>
@@ -1421,17 +1524,21 @@
       <c r="E25" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="1"/>
+      <c r="H25" s="10">
+        <v>1015</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="1"/>
       <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="7" t="s">
         <v>77</v>
       </c>
@@ -1447,17 +1554,21 @@
       <c r="E26" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="1"/>
+      <c r="H26" s="10">
+        <v>1020</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="1"/>
       <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="7" t="s">
         <v>78</v>
       </c>
@@ -1473,19 +1584,23 @@
       <c r="E27" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="1"/>
+      <c r="H27" s="10">
+        <v>1025</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="1"/>
       <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B3:I3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
